--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\GCB_Dash\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72374C03-F027-40BC-9CE1-D500F5AB9897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950B52B4-D5C4-4D94-AEDD-8E8B8CC80C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="progress" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -229,13 +229,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -265,50 +265,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF070CE9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF070CE9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF070CE9"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1823,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB96B59-B9D4-40DB-956E-7C1EFFF0FE47}">
   <dimension ref="A1:E1696"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1859,7 +1816,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="15">
         <v>0</v>
@@ -1876,7 +1833,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="15">
         <v>0</v>
@@ -2106,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>A2+7</f>
         <v>45107</v>
@@ -2115,7 +2072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f t="shared" ref="A18:A31" si="0">A3+7</f>
         <v>45107</v>
@@ -2123,8 +2080,11 @@
       <c r="B18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>45107</v>
@@ -2133,7 +2093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>45107</v>
@@ -2142,7 +2102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>45107</v>
@@ -2151,7 +2111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>45107</v>
@@ -2160,7 +2120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>45107</v>
@@ -2169,7 +2129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>45107</v>
@@ -2178,7 +2138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>45107</v>
@@ -2187,7 +2147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>45107</v>
@@ -2196,7 +2156,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>45107</v>
@@ -2205,7 +2165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>45107</v>
@@ -2214,7 +2174,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>45107</v>
@@ -2223,7 +2183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <f t="shared" si="0"/>
         <v>45107</v>
@@ -2232,7 +2192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>45107</v>
@@ -2241,7 +2201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <f>A17+7</f>
         <v>45114</v>

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\GCB_Dash\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950B52B4-D5C4-4D94-AEDD-8E8B8CC80C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C372BBB3-A11B-4308-8466-963BF2662BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="progress" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,7 +259,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1780,15 +1779,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB96B59-B9D4-40DB-956E-7C1EFFF0FE47}">
   <dimension ref="A1:E1696"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A1675" workbookViewId="0">
+      <selection activeCell="C1697" sqref="C1697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="5" width="11.5546875" style="16"/>
+    <col min="3" max="5" width="11.5546875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2080,7 +2079,7 @@
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>4</v>
       </c>
     </row>
@@ -2930,7 +2929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <f t="shared" si="2"/>
         <v>45149</v>
@@ -2939,7 +2938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <f t="shared" si="2"/>
         <v>45149</v>
@@ -2948,7 +2947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <f t="shared" si="2"/>
         <v>45149</v>
@@ -2957,7 +2956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <f t="shared" si="2"/>
         <v>45149</v>
@@ -2966,7 +2965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <f t="shared" si="2"/>
         <v>45149</v>
@@ -2975,7 +2974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <f t="shared" si="2"/>
         <v>45149</v>
@@ -2984,7 +2983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <f t="shared" si="2"/>
         <v>45149</v>
@@ -2993,7 +2992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <f t="shared" si="2"/>
         <v>45149</v>
@@ -3002,7 +3001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <f t="shared" si="2"/>
         <v>45149</v>
@@ -3010,8 +3009,11 @@
       <c r="B121" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <f t="shared" si="2"/>
         <v>45156</v>
@@ -3020,7 +3022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <f t="shared" si="2"/>
         <v>45156</v>
@@ -3029,7 +3031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <f t="shared" si="2"/>
         <v>45156</v>
@@ -3037,8 +3039,11 @@
       <c r="B124" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D124" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <f t="shared" si="2"/>
         <v>45156</v>
@@ -3047,7 +3052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <f t="shared" si="2"/>
         <v>45156</v>
@@ -3056,7 +3061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <f t="shared" si="2"/>
         <v>45156</v>
@@ -3065,7 +3070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <f t="shared" si="2"/>
         <v>45156</v>
@@ -17042,7 +17047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1681" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1681" s="8">
         <f t="shared" si="28"/>
         <v>45877</v>
@@ -17051,7 +17056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1682" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1682" s="8">
         <f t="shared" si="28"/>
         <v>45884</v>
@@ -17060,7 +17065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1683" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1683" s="8">
         <f t="shared" si="28"/>
         <v>45884</v>
@@ -17069,7 +17074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1684" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1684" s="8">
         <f t="shared" si="28"/>
         <v>45884</v>
@@ -17078,7 +17083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1685" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1685" s="8">
         <f t="shared" si="28"/>
         <v>45884</v>
@@ -17087,7 +17092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1686" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1686" s="8">
         <f t="shared" si="28"/>
         <v>45884</v>
@@ -17096,7 +17101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1687" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1687" s="8">
         <f t="shared" si="28"/>
         <v>45884</v>
@@ -17105,7 +17110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1688" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1688" s="8">
         <f t="shared" si="28"/>
         <v>45884</v>
@@ -17114,7 +17119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1689" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1689" s="8">
         <f t="shared" si="28"/>
         <v>45884</v>
@@ -17123,7 +17128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1690" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1690" s="8">
         <f t="shared" si="28"/>
         <v>45884</v>
@@ -17132,7 +17137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1691" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1691" s="8">
         <f t="shared" si="28"/>
         <v>45884</v>
@@ -17141,7 +17146,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1692" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1692" s="8">
         <f t="shared" si="28"/>
         <v>45884</v>
@@ -17150,7 +17155,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1693" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1693" s="8">
         <f t="shared" si="28"/>
         <v>45884</v>
@@ -17159,7 +17164,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1694" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1694" s="8">
         <f t="shared" si="28"/>
         <v>45884</v>
@@ -17168,7 +17173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1695" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1695" s="8">
         <f t="shared" si="28"/>
         <v>45884</v>
@@ -17177,13 +17182,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1696" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1696" s="8">
         <f t="shared" si="28"/>
         <v>45884</v>
       </c>
       <c r="B1696" t="s">
         <v>36</v>
+      </c>
+      <c r="C1696" s="15">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
